--- a/dist/document/dest/2020/10/doctors/20.xlsx
+++ b/dist/document/dest/2020/10/doctors/20.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>30</v>
       </c>
-      <c r="C2" s="1">
-        <v>34500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>260</v>
       </c>
-      <c r="C3" s="1">
-        <v>1573000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>3660</v>
       </c>
-      <c r="C4" s="1">
-        <v>24558600</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>472</v>
       </c>
-      <c r="C5" s="1">
-        <v>2496880</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="1">
-        <v>1897500</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>90</v>
       </c>
-      <c r="C7" s="1">
-        <v>751500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>32500</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>10130</v>
       </c>
-      <c r="C9" s="1">
-        <v>53587700</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>5655</v>
       </c>
-      <c r="C10" s="1">
-        <v>16908450</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>840</v>
       </c>
-      <c r="C11" s="1">
-        <v>3864000</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>90</v>
       </c>
-      <c r="C12" s="1">
-        <v>683100</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1350</v>
       </c>
-      <c r="C13" s="1">
-        <v>63855000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>1260</v>
       </c>
-      <c r="C14" s="1">
-        <v>4126500</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>614</v>
       </c>
-      <c r="C15" s="1">
-        <v>2824400</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>2315</v>
       </c>
-      <c r="C16" s="1">
-        <v>16042950</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="C17" s="1">
-        <v>68300</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>420</v>
       </c>
-      <c r="C18" s="1">
-        <v>1906800</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1225</v>
       </c>
-      <c r="C19" s="1">
-        <v>4575375</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>1390</v>
       </c>
-      <c r="C20" s="1">
-        <v>13608100</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>1485</v>
       </c>
-      <c r="C21" s="1">
-        <v>20827125</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>30</v>
       </c>
-      <c r="C22" s="1">
-        <v>216150</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>19047</v>
       </c>
-      <c r="C23" s="1">
-        <v>272372100</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>771</v>
       </c>
-      <c r="C24" s="1">
-        <v>7632900</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>1000</v>
       </c>
-      <c r="C25" s="1">
-        <v>3450000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>165</v>
       </c>
-      <c r="C26" s="1">
-        <v>702075</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>287</v>
       </c>
-      <c r="C27" s="1">
-        <v>24624600</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>563</v>
       </c>
-      <c r="C28" s="1">
-        <v>9723010</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>730</v>
       </c>
-      <c r="C29" s="1">
-        <v>8833000</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>536</v>
       </c>
-      <c r="C30" s="1">
-        <v>5306400</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>210</v>
       </c>
-      <c r="C31" s="1">
-        <v>3717000</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>30</v>
       </c>
-      <c r="C32" s="1">
-        <v>108300</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>180</v>
       </c>
-      <c r="C33" s="1">
-        <v>1184400</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>7840</v>
       </c>
-      <c r="C34" s="1">
-        <v>51312800</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>150</v>
       </c>
-      <c r="C35" s="1">
-        <v>36750</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>240</v>
       </c>
-      <c r="C36" s="1">
-        <v>800400</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>15</v>
       </c>
-      <c r="C37" s="1">
-        <v>16200</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>10</v>
       </c>
-      <c r="C38" s="1">
-        <v>31000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>30</v>
       </c>
-      <c r="C39" s="1">
-        <v>194700</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>2970</v>
       </c>
-      <c r="C40" s="1">
-        <v>17968500</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>1335</v>
       </c>
-      <c r="C41" s="1">
-        <v>3991650</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>60</v>
       </c>
-      <c r="C42" s="1">
-        <v>40800</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>2246</v>
       </c>
-      <c r="C43" s="1">
-        <v>35823700</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>29082</v>
       </c>
-      <c r="C44" s="1">
-        <v>120399480</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>1585</v>
       </c>
-      <c r="C45" s="1">
-        <v>33919000</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>30</v>
       </c>
-      <c r="C46" s="1">
-        <v>642000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>120</v>
       </c>
-      <c r="C47" s="1">
-        <v>1224000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>30</v>
       </c>
-      <c r="C48" s="1">
-        <v>122700</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>63905</v>
       </c>
-      <c r="C49" s="1">
-        <v>161679650</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>420</v>
       </c>
-      <c r="C50" s="1">
-        <v>1690500</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>30</v>
       </c>
-      <c r="C51" s="1">
-        <v>106950</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>71</v>
       </c>
-      <c r="C52" s="1">
-        <v>7029000</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>103</v>
       </c>
-      <c r="C53" s="1">
-        <v>17994100</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>180</v>
       </c>
-      <c r="C54" s="1">
-        <v>2808000</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>1205</v>
       </c>
-      <c r="C55" s="1">
-        <v>3735500</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>314</v>
       </c>
-      <c r="C56" s="1">
-        <v>1769390</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>750</v>
       </c>
-      <c r="C57" s="1">
-        <v>1267500</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>630</v>
       </c>
-      <c r="C58" s="1">
-        <v>727650</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>60</v>
       </c>
-      <c r="C59" s="1">
-        <v>255300</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>19565</v>
       </c>
-      <c r="C60" s="1">
-        <v>146346200</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>80</v>
       </c>
-      <c r="C61" s="1">
-        <v>1496000</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>720</v>
       </c>
-      <c r="C62" s="1">
-        <v>4197600</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>2363</v>
       </c>
-      <c r="C63" s="1">
-        <v>12772015</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>870</v>
       </c>
-      <c r="C64" s="1">
-        <v>14067900</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>15088</v>
       </c>
-      <c r="C65" s="1">
-        <v>232355200</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>300</v>
       </c>
-      <c r="C66" s="1">
-        <v>1449000</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>54</v>
       </c>
-      <c r="C67" s="1">
-        <v>198180</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>1782</v>
       </c>
-      <c r="C68" s="1">
-        <v>2254230</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>3435</v>
       </c>
-      <c r="C69" s="1">
-        <v>6320400</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>3197</v>
       </c>
-      <c r="C70" s="1">
-        <v>17935170</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>2580</v>
       </c>
-      <c r="C71" s="1">
-        <v>32637000</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>570</v>
       </c>
-      <c r="C72" s="1">
-        <v>1208400</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>30</v>
       </c>
-      <c r="C73" s="1">
-        <v>73800</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>1100</v>
       </c>
-      <c r="C74" s="1">
-        <v>5566000</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>30</v>
       </c>
-      <c r="C75" s="1">
-        <v>815100</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>7535</v>
       </c>
-      <c r="C76" s="1">
-        <v>34661000</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>120</v>
       </c>
-      <c r="C77" s="1">
-        <v>1188000</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>540</v>
       </c>
-      <c r="C78" s="1">
-        <v>1333800</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>7044</v>
       </c>
-      <c r="C79" s="1">
-        <v>76709160</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>150</v>
       </c>
-      <c r="C80" s="1">
-        <v>1402500</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>6170</v>
       </c>
-      <c r="C81" s="1">
-        <v>20576950</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>90</v>
       </c>
-      <c r="C82" s="1">
-        <v>40950</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>660</v>
       </c>
-      <c r="C83" s="1">
-        <v>5808000</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>635</v>
       </c>
-      <c r="C84" s="1">
-        <v>11525250</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>12734</v>
       </c>
-      <c r="C85" s="1">
-        <v>111677180</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>1844</v>
       </c>
-      <c r="C86" s="1">
-        <v>11967560</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>2524</v>
       </c>
-      <c r="C87" s="1">
-        <v>19434800</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>90</v>
       </c>
-      <c r="C88" s="1">
-        <v>108450</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>13120</v>
       </c>
-      <c r="C89" s="1">
-        <v>121228800</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>30</v>
       </c>
-      <c r="C90" s="1">
-        <v>264000</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>360</v>
       </c>
-      <c r="C91" s="1">
-        <v>3128400</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>1</v>
       </c>
-      <c r="C92" s="1">
-        <v>68300</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>1070</v>
       </c>
-      <c r="C93" s="1">
-        <v>5537250</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>180</v>
       </c>
-      <c r="C94" s="1">
-        <v>1555200</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>74</v>
       </c>
-      <c r="C95" s="1">
-        <v>13297800</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>30</v>
       </c>
-      <c r="C96" s="1">
-        <v>100050</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>44</v>
       </c>
-      <c r="C97" s="1">
-        <v>4840000</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>540</v>
       </c>
-      <c r="C98" s="1">
-        <v>10692000</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>574</v>
       </c>
-      <c r="C99" s="1">
-        <v>2970450</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>860</v>
       </c>
-      <c r="C100" s="1">
-        <v>3560400</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>4055</v>
       </c>
-      <c r="C101" s="1">
-        <v>16321375</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>8875</v>
       </c>
-      <c r="C102" s="1">
-        <v>11226875</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>16715</v>
       </c>
-      <c r="C103" s="1">
-        <v>126866850</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>90</v>
       </c>
-      <c r="C104" s="1">
-        <v>231300</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1537,9 +1228,6 @@
       <c r="B105" s="1">
         <v>60</v>
       </c>
-      <c r="C105" s="1">
-        <v>96600</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1548,9 +1236,6 @@
       <c r="B106" s="1">
         <v>1590</v>
       </c>
-      <c r="C106" s="1">
-        <v>6582600</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1559,9 +1244,6 @@
       <c r="B107" s="1">
         <v>3715</v>
       </c>
-      <c r="C107" s="1">
-        <v>31874700</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1570,9 +1252,6 @@
       <c r="B108" s="1">
         <v>11360</v>
       </c>
-      <c r="C108" s="1">
-        <v>22208800</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1581,9 +1260,6 @@
       <c r="B109" s="1">
         <v>3538</v>
       </c>
-      <c r="C109" s="1">
-        <v>13426710</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1592,9 +1268,6 @@
       <c r="B110" s="1">
         <v>72115</v>
       </c>
-      <c r="C110" s="1">
-        <v>618746700</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1603,9 +1276,6 @@
       <c r="B111" s="1">
         <v>2460</v>
       </c>
-      <c r="C111" s="1">
-        <v>46002000</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1614,9 +1284,6 @@
       <c r="B112" s="1">
         <v>90</v>
       </c>
-      <c r="C112" s="1">
-        <v>685350</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1625,9 +1292,6 @@
       <c r="B113" s="1">
         <v>3</v>
       </c>
-      <c r="C113" s="1">
-        <v>36900</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1636,9 +1300,6 @@
       <c r="B114" s="1">
         <v>14585</v>
       </c>
-      <c r="C114" s="1">
-        <v>141182800</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1648,7 +1309,7 @@
         <v>416432</v>
       </c>
       <c r="C115" s="1">
-        <v>3016537440</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/20.xlsx
+++ b/dist/document/dest/2020/10/doctors/20.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C557"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Aceronko (Acenocoumarol 1mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
+        <v>162</v>
+      </c>
+      <c r="C2" s="1">
+        <v>980100</v>
       </c>
     </row>
     <row r="3">
@@ -410,911 +413,6109 @@
         <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B3" s="1">
-        <v>260</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>108900</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B4" s="1">
-        <v>3660</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>145200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Allerba (Ebastine 10mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B5" s="1">
-        <v>472</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>60500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Amisate (Donepezil 5mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B6" s="1">
-        <v>150</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Amlor 5mg Pfizer (Amlodipine)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B7" s="1">
-        <v>90</v>
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>36300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v xml:space="preserve">Aspartam </v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="1">
+        <v>169400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B9" s="1">
-        <v>10130</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>133100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B10" s="1">
-        <v>5655</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>84700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Albenca 400mg (Albendazole)</v>
       </c>
       <c r="B11" s="1">
-        <v>840</v>
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>84700</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Banitase (Trimebutin,dehydrocholic, pancreatin, bromelain, simethicone)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B12" s="1">
-        <v>90</v>
+        <v>1200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8052000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Barcavir (Entecavir 0.5mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B13" s="1">
-        <v>1350</v>
+        <v>150</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1006500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B14" s="1">
-        <v>1260</v>
+        <v>300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2013000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B15" s="1">
-        <v>614</v>
+        <v>120</v>
+      </c>
+      <c r="C15" s="1">
+        <v>805200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B16" s="1">
-        <v>2315</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="1">
+        <v>805200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Betadine Gar 1%  (SM)</v>
+        <v xml:space="preserve">Alcoclear (Metadoxine 500mg) </v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>420</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2818200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>420</v>
+        <v>350</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1851500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>1225</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>105800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>1390</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>158700</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>1485</v>
+        <v>60</v>
+      </c>
+      <c r="C21" s="1">
+        <v>317400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>317400</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>19047</v>
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>105800</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>771</v>
+        <v>80</v>
+      </c>
+      <c r="C24" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>1000</v>
+        <v>140</v>
+      </c>
+      <c r="C25" s="1">
+        <v>483000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Chondrasil (Allopurinol 300mg)</v>
+        <v>Amemoin (Methocarbamol 500mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>165</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>287</v>
+        <v>30</v>
+      </c>
+      <c r="C27" s="1">
+        <v>379500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>563</v>
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>316250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Copedina (Clopidogrel 75mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>730</v>
+        <v>300</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1725000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Coxwell (Etoricoxib 90mg)</v>
+        <v xml:space="preserve">Aspartam </v>
       </c>
       <c r="B30" s="1">
-        <v>536</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>65000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Crestor (Rosuvastatin 10mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B31" s="1">
-        <v>210</v>
+        <v>120</v>
+      </c>
+      <c r="C31" s="1">
+        <v>634800</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B32" s="1">
-        <v>30</v>
+        <v>930</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4919700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B33" s="1">
-        <v>180</v>
+        <v>480</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2539200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B34" s="1">
-        <v>7840</v>
+        <v>180</v>
+      </c>
+      <c r="C34" s="1">
+        <v>952200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B35" s="1">
-        <v>150</v>
+        <v>270</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1428300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Doniwell (Levosulpiride 25mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B36" s="1">
-        <v>240</v>
+        <v>960</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5078400</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Doxycyclin 100mg</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B37" s="1">
-        <v>15</v>
+        <v>5280</v>
+      </c>
+      <c r="C37" s="1">
+        <v>27931200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Efferalgan Sủi 500mg</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B38" s="1">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1">
+        <v>317400</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B39" s="1">
-        <v>30</v>
+        <v>420</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2221800</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Esserose (Phospholipids 450mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B40" s="1">
-        <v>2970</v>
+        <v>690</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3650100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B41" s="1">
-        <v>1335</v>
+        <v>260</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1196000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Farzincol (Equivalent 10mg) zinc gluconate 70mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B42" s="1">
         <v>60</v>
       </c>
+      <c r="C42" s="1">
+        <v>276000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B43" s="1">
-        <v>2246</v>
+        <v>90</v>
+      </c>
+      <c r="C43" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Flodilan-4 (Glimepirid)</v>
+        <v>Barcavir (Entecavir 0.5mg)</v>
       </c>
       <c r="B44" s="1">
-        <v>29082</v>
+        <v>120</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5676000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Forxiga (Dapagliflozin 10mg)</v>
+        <v>Barcavir (Entecavir 0.5mg)</v>
       </c>
       <c r="B45" s="1">
-        <v>1585</v>
+        <v>90</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4257000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Forxiga (Dapagliflozin 5mg)</v>
+        <v>Barcavir (Entecavir 0.5mg)</v>
       </c>
       <c r="B46" s="1">
-        <v>30</v>
+        <v>300</v>
+      </c>
+      <c r="C46" s="1">
+        <v>14190000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+        <v>Barcavir (Entecavir 0.5mg)</v>
       </c>
       <c r="B47" s="1">
-        <v>120</v>
+        <v>870</v>
+      </c>
+      <c r="C47" s="1">
+        <v>41151000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Glucophage 850mg (Metformin)</v>
+        <v>Barcavir (Entecavir 0.5mg)</v>
       </c>
       <c r="B48" s="1">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="C48" s="1">
+        <v>5676000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Barcavir (Entecavir 0.5mg)</v>
       </c>
       <c r="B49" s="1">
-        <v>63905</v>
+        <v>210</v>
+      </c>
+      <c r="C49" s="1">
+        <v>9933000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B50" s="1">
-        <v>420</v>
+        <v>195</v>
+      </c>
+      <c r="C50" s="1">
+        <v>638625</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Hemol (Methocarbamol 750mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="C51" s="1">
+        <v>393000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Insulatard 100IU/10ml</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>71</v>
+        <v>120</v>
+      </c>
+      <c r="C52" s="1">
+        <v>393000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B53" s="1">
-        <v>103</v>
+        <v>210</v>
+      </c>
+      <c r="C53" s="1">
+        <v>687750</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Ketosteril</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B54" s="1">
-        <v>180</v>
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>393000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B55" s="1">
-        <v>1205</v>
+        <v>80</v>
+      </c>
+      <c r="C55" s="1">
+        <v>262000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B56" s="1">
-        <v>314</v>
+        <v>884</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2895100</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B57" s="1">
-        <v>750</v>
+        <v>120</v>
+      </c>
+      <c r="C57" s="1">
+        <v>393000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B58" s="1">
-        <v>630</v>
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>98250</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Lisopress (Lisinopril 5mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B59" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B60" s="1">
-        <v>19565</v>
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B61" s="1">
-        <v>80</v>
+        <v>30</v>
+      </c>
+      <c r="C61" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B62" s="1">
-        <v>720</v>
+        <v>20</v>
+      </c>
+      <c r="C62" s="1">
+        <v>92000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>2363</v>
+        <v>410</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1886000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>870</v>
+        <v>90</v>
+      </c>
+      <c r="C64" s="1">
+        <v>623700</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>15088</v>
+        <v>60</v>
+      </c>
+      <c r="C65" s="1">
+        <v>415800</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>300</v>
+        <v>150</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1039500</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>54</v>
+        <v>1185</v>
+      </c>
+      <c r="C67" s="1">
+        <v>8212050</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>1782</v>
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>207900</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Metozamin (Metformin 850mg)</v>
+        <v>Betadine Gar 1%  (SM)</v>
       </c>
       <c r="B69" s="1">
-        <v>3435</v>
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>68300</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>3197</v>
+        <v>60</v>
+      </c>
+      <c r="C70" s="1">
+        <v>272400</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>2580</v>
+        <v>120</v>
+      </c>
+      <c r="C71" s="1">
+        <v>544800</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>570</v>
+        <v>60</v>
+      </c>
+      <c r="C72" s="1">
+        <v>272400</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Motilium M (Domperidone 10mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="C73" s="1">
+        <v>272400</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Nadebo (Rebamipide 100mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>1100</v>
+        <v>30</v>
+      </c>
+      <c r="C74" s="1">
+        <v>112050</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Nexium (Esomeprazole 40mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="C75" s="1">
+        <v>298800</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>7535</v>
+        <v>220</v>
+      </c>
+      <c r="C76" s="1">
+        <v>821700</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Novator (Deferiprone 500mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>120</v>
+        <v>150</v>
+      </c>
+      <c r="C77" s="1">
+        <v>560250</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B78" s="1">
-        <v>540</v>
+        <v>750</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2801250</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Optipan (Diacerhein 50mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>7044</v>
+        <v>150</v>
+      </c>
+      <c r="C79" s="1">
+        <v>560250</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Orlitax (Orlistat 120mg)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>150</v>
+        <v>30</v>
+      </c>
+      <c r="C80" s="1">
+        <v>112050</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Bisolota F.C  (Bisoprolol 5mg)</v>
       </c>
       <c r="B81" s="1">
-        <v>6170</v>
+        <v>180</v>
+      </c>
+      <c r="C81" s="1">
+        <v>672300</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v xml:space="preserve">Prednisone </v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>65550</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>660</v>
+        <v>1290</v>
+      </c>
+      <c r="C83" s="1">
+        <v>12629100</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>635</v>
+        <v>960</v>
+      </c>
+      <c r="C84" s="1">
+        <v>9398400</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Bonzacim (Rosuvastatin 10mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>12734</v>
+        <v>540</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5286600</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B86" s="1">
-        <v>1844</v>
+        <v>60</v>
+      </c>
+      <c r="C86" s="1">
+        <v>154800</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B87" s="1">
-        <v>2524</v>
+        <v>165</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2314125</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Cadigrel (Clopidogrel 75mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>90</v>
+        <v>150</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2103750</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>13120</v>
+        <v>47</v>
+      </c>
+      <c r="C89" s="1">
+        <v>338635</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Rosutrox (Rosuvastatin 10mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>30</v>
+        <v>310</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4433000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Sanaperol (Rabeprazol 20mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>360</v>
+        <v>420</v>
+      </c>
+      <c r="C91" s="1">
+        <v>6006000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>1125</v>
+      </c>
+      <c r="C92" s="1">
+        <v>16087500</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B93" s="1">
-        <v>1070</v>
+        <v>450</v>
+      </c>
+      <c r="C93" s="1">
+        <v>6435000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>ShineTadeno (Cao Pygeum dfricanum 50mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B94" s="1">
-        <v>180</v>
+        <v>6774</v>
+      </c>
+      <c r="C94" s="1">
+        <v>96868200</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Sotinin</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B95" s="1">
-        <v>74</v>
+        <v>1245</v>
+      </c>
+      <c r="C95" s="1">
+        <v>17803500</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Spiromide (Spironolactone, Furosemide)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B96" s="1">
-        <v>30</v>
+        <v>782</v>
+      </c>
+      <c r="C96" s="1">
+        <v>11182600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B97" s="1">
-        <v>44</v>
+        <v>360</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5148000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>SunnyRoitin (Citicoline 500mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B98" s="1">
-        <v>540</v>
+        <v>107</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1059300</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Talroma (Tiropramide 100mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B99" s="1">
-        <v>574</v>
+        <v>35</v>
+      </c>
+      <c r="C99" s="1">
+        <v>346500</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B100" s="1">
-        <v>860</v>
+        <v>79</v>
+      </c>
+      <c r="C100" s="1">
+        <v>782100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B101" s="1">
-        <v>4055</v>
+        <v>94</v>
+      </c>
+      <c r="C101" s="1">
+        <v>930600</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B102" s="1">
-        <v>8875</v>
+        <v>15</v>
+      </c>
+      <c r="C102" s="1">
+        <v>148500</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B103" s="1">
-        <v>16715</v>
+        <v>48</v>
+      </c>
+      <c r="C103" s="1">
+        <v>475200</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Thyrozol 10mg (Thiamazole)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B104" s="1">
-        <v>90</v>
+        <v>410</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4059000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B105" s="1">
-        <v>60</v>
+        <v>23</v>
+      </c>
+      <c r="C105" s="1">
+        <v>227700</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Timiroitin</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B106" s="1">
-        <v>1590</v>
+        <v>10</v>
+      </c>
+      <c r="C106" s="1">
+        <v>99000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B107" s="1">
-        <v>3715</v>
+        <v>60</v>
+      </c>
+      <c r="C107" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B108" s="1">
-        <v>11360</v>
+        <v>90</v>
+      </c>
+      <c r="C108" s="1">
+        <v>310500</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Uvomo (Mosaprid citrat 5mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B109" s="1">
-        <v>3538</v>
+        <v>180</v>
+      </c>
+      <c r="C109" s="1">
+        <v>621000</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Vigorito (Vildagliptin 50mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B110" s="1">
-        <v>72115</v>
+        <v>60</v>
+      </c>
+      <c r="C110" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B111" s="1">
-        <v>2460</v>
+        <v>120</v>
+      </c>
+      <c r="C111" s="1">
+        <v>414000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B112" s="1">
-        <v>90</v>
+        <v>750</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2587500</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B113" s="1">
-        <v>3</v>
+        <v>60</v>
+      </c>
+      <c r="C113" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
       </c>
       <c r="B114" s="1">
-        <v>14585</v>
+        <v>180</v>
+      </c>
+      <c r="C114" s="1">
+        <v>621000</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>30</v>
+      </c>
+      <c r="C115" s="1">
+        <v>127650</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>60</v>
+      </c>
+      <c r="C116" s="1">
+        <v>255300</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>260</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1106300</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>90</v>
+      </c>
+      <c r="C118" s="1">
+        <v>382950</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Chondrasil (Allopurinol 300mg)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>30</v>
+      </c>
+      <c r="C119" s="1">
+        <v>127650</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+      </c>
+      <c r="B120" s="1">
+        <v>28</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2402400</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1201200</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>29</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2488200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>87</v>
+      </c>
+      <c r="C123" s="1">
+        <v>7464600</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>28</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2402400</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1201200</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Cinezole Kit (Clarithromycin,Esomeprazole,Tinidazole)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1201200</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>Cododamed (Pregabalina 75mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>120</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2072400</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>Cododamed (Pregabalina 75mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>120</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2072400</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>Cododamed (Pregabalina 75mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1">
+        <v>518100</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Cododamed (Pregabalina 75mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>120</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2072400</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>Cododamed (Pregabalina 75mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>285</v>
+      </c>
+      <c r="C131" s="1">
+        <v>4921950</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>Cododamed (Pregabalina 75mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>157</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2711390</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Copedina (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>30</v>
+      </c>
+      <c r="C133" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Copedina (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>30</v>
+      </c>
+      <c r="C134" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>15</v>
+      </c>
+      <c r="C135" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>15</v>
+      </c>
+      <c r="C136" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Coxwell (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Coxwell (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>306</v>
+      </c>
+      <c r="C138" s="1">
+        <v>3029400</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Coxwell (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>8</v>
+      </c>
+      <c r="C139" s="1">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>60</v>
+      </c>
+      <c r="C140" s="1">
+        <v>216600</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>120</v>
+      </c>
+      <c r="C141" s="1">
+        <v>433200</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>30</v>
+      </c>
+      <c r="C142" s="1">
+        <v>108300</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>180</v>
+      </c>
+      <c r="C143" s="1">
+        <v>649800</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>180</v>
+      </c>
+      <c r="C144" s="1">
+        <v>649800</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>60</v>
+      </c>
+      <c r="C145" s="1">
+        <v>216600</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>150</v>
+      </c>
+      <c r="C146" s="1">
+        <v>987000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>2260</v>
+      </c>
+      <c r="C147" s="1">
+        <v>14791700</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>300</v>
+      </c>
+      <c r="C148" s="1">
+        <v>1963500</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>120</v>
+      </c>
+      <c r="C149" s="1">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>150</v>
+      </c>
+      <c r="C150" s="1">
+        <v>981750</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>360</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2356200</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>60</v>
+      </c>
+      <c r="C152" s="1">
+        <v>392700</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>300</v>
+      </c>
+      <c r="C153" s="1">
+        <v>1963500</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>600</v>
+      </c>
+      <c r="C154" s="1">
+        <v>3927000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>50</v>
+      </c>
+      <c r="C155" s="1">
+        <v>327250</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Diurefar (Furosemide 40mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>30</v>
+      </c>
+      <c r="C156" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Diurefar (Furosemide 40mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>15</v>
+      </c>
+      <c r="C157" s="1">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Dochicin (Colchicine 1mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>50</v>
+      </c>
+      <c r="C158" s="1">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Doniwell (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>150</v>
+      </c>
+      <c r="C159" s="1">
+        <v>500250</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B160" s="1">
+        <v>20</v>
+      </c>
+      <c r="C160" s="1">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Doxycyclin 100mg</v>
+      </c>
+      <c r="B161" s="1">
+        <v>50</v>
+      </c>
+      <c r="C161" s="1">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Duphalac (Iactulose)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>15</v>
+      </c>
+      <c r="C162" s="1">
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Duphalac (Lactulose)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>20</v>
+      </c>
+      <c r="C163" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Efferalgan Sủi 500mg</v>
+      </c>
+      <c r="B164" s="1">
+        <v>6</v>
+      </c>
+      <c r="C164" s="1">
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>30</v>
+      </c>
+      <c r="C165" s="1">
+        <v>194700</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>60</v>
+      </c>
+      <c r="C166" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>60</v>
+      </c>
+      <c r="C167" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>60</v>
+      </c>
+      <c r="C168" s="1">
+        <v>363000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>90</v>
+      </c>
+      <c r="C169" s="1">
+        <v>544500</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1830</v>
+      </c>
+      <c r="C170" s="1">
+        <v>11071500</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>120</v>
+      </c>
+      <c r="C171" s="1">
+        <v>726000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>330</v>
+      </c>
+      <c r="C172" s="1">
+        <v>1996500</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Esserose (Phospholipids 450mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>180</v>
+      </c>
+      <c r="C173" s="1">
+        <v>1089000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>60</v>
+      </c>
+      <c r="C174" s="1">
+        <v>179400</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>30</v>
+      </c>
+      <c r="C175" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>120</v>
+      </c>
+      <c r="C176" s="1">
+        <v>358800</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45</v>
+      </c>
+      <c r="C177" s="1">
+        <v>134550</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>120</v>
+      </c>
+      <c r="C178" s="1">
+        <v>358800</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>420</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1255800</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>30</v>
+      </c>
+      <c r="C180" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>30</v>
+      </c>
+      <c r="C181" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>120</v>
+      </c>
+      <c r="C182" s="1">
+        <v>358800</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Farzincol (Equivalent 10mg) zinc gluconate 70mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>60</v>
+      </c>
+      <c r="C183" s="1">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>140</v>
+      </c>
+      <c r="C184" s="1">
+        <v>2233000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>30</v>
+      </c>
+      <c r="C185" s="1">
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>150</v>
+      </c>
+      <c r="C186" s="1">
+        <v>2392500</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>90</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1435500</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>135</v>
+      </c>
+      <c r="C188" s="1">
+        <v>2153250</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1127</v>
+      </c>
+      <c r="C189" s="1">
+        <v>17975650</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>105</v>
+      </c>
+      <c r="C190" s="1">
+        <v>1674750</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>60</v>
+      </c>
+      <c r="C191" s="1">
+        <v>957000</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1335</v>
+      </c>
+      <c r="C192" s="1">
+        <v>5526900</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>745</v>
+      </c>
+      <c r="C193" s="1">
+        <v>3084300</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>390</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1614600</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1720</v>
+      </c>
+      <c r="C195" s="1">
+        <v>7120800</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>1170</v>
+      </c>
+      <c r="C196" s="1">
+        <v>4843800</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>780</v>
+      </c>
+      <c r="C197" s="1">
+        <v>3229200</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>11633</v>
+      </c>
+      <c r="C198" s="1">
+        <v>48160620</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>2280</v>
+      </c>
+      <c r="C199" s="1">
+        <v>9439200</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>525</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2173500</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Flodilan-4 (Glimepirid)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>1635</v>
+      </c>
+      <c r="C201" s="1">
+        <v>6768900</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45</v>
+      </c>
+      <c r="C202" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45</v>
+      </c>
+      <c r="C203" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>30</v>
+      </c>
+      <c r="C204" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>121</v>
+      </c>
+      <c r="C205" s="1">
+        <v>2662000</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>192</v>
+      </c>
+      <c r="C206" s="1">
+        <v>4108800</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>387</v>
+      </c>
+      <c r="C207" s="1">
+        <v>8514000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>258</v>
+      </c>
+      <c r="C208" s="1">
+        <v>5676000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>14</v>
+      </c>
+      <c r="C209" s="1">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Galvus Met 50mg/1000mg (Vildagliptin,Metformin)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>150</v>
+      </c>
+      <c r="C210" s="1">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Glucobay 100mg (Acarbose)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>90</v>
+      </c>
+      <c r="C211" s="1">
+        <v>489600</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>2850</v>
+      </c>
+      <c r="C212" s="1">
+        <v>7210500</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>1760</v>
+      </c>
+      <c r="C213" s="1">
+        <v>4452800</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B214" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C214" s="1">
+        <v>5009400</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2740</v>
+      </c>
+      <c r="C215" s="1">
+        <v>6932200</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2160</v>
+      </c>
+      <c r="C216" s="1">
+        <v>5464800</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>2100</v>
+      </c>
+      <c r="C217" s="1">
+        <v>5313000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>28985</v>
+      </c>
+      <c r="C218" s="1">
+        <v>73332050</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>4680</v>
+      </c>
+      <c r="C219" s="1">
+        <v>11840400</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>2990</v>
+      </c>
+      <c r="C220" s="1">
+        <v>7564700</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C221" s="1">
+        <v>4250400</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Goldagtin (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>300</v>
+      </c>
+      <c r="C222" s="1">
+        <v>2574000</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>30</v>
+      </c>
+      <c r="C223" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>180</v>
+      </c>
+      <c r="C224" s="1">
+        <v>444600</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B225" s="1">
+        <v>4</v>
+      </c>
+      <c r="C225" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B226" s="1">
+        <v>3</v>
+      </c>
+      <c r="C226" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B227" s="1">
+        <v>6</v>
+      </c>
+      <c r="C227" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B228" s="1">
+        <v>1</v>
+      </c>
+      <c r="C228" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B229" s="1">
+        <v>2</v>
+      </c>
+      <c r="C229" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B230" s="1">
+        <v>38</v>
+      </c>
+      <c r="C230" s="1">
+        <v>3762000</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B231" s="1">
+        <v>7</v>
+      </c>
+      <c r="C231" s="1">
+        <v>693000</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Insulatard 100IU/10ml</v>
+      </c>
+      <c r="B232" s="1">
+        <v>4</v>
+      </c>
+      <c r="C232" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
+      </c>
+      <c r="B233" s="1">
+        <v>8</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1397600</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
+      </c>
+      <c r="B234" s="1">
+        <v>10</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1747000</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
+      </c>
+      <c r="B235" s="1">
+        <v>6</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1048200</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
+      </c>
+      <c r="B236" s="1">
+        <v>11</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1921700</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
+      </c>
+      <c r="B237" s="1">
+        <v>30</v>
+      </c>
+      <c r="C237" s="1">
+        <v>5241000</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Insulatard Flexpen 100IU/Ml 3ml</v>
+      </c>
+      <c r="B238" s="1">
+        <v>6</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1048200</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B239" s="1">
+        <v>90</v>
+      </c>
+      <c r="C239" s="1">
+        <v>238050</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Karyuni Collyre (Pirenoxine 0.005%)</v>
+      </c>
+      <c r="B240" s="1">
+        <v>2</v>
+      </c>
+      <c r="C240" s="1">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+      </c>
+      <c r="B241" s="1">
+        <v>30</v>
+      </c>
+      <c r="C241" s="1">
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+      </c>
+      <c r="B242" s="1">
+        <v>100</v>
+      </c>
+      <c r="C242" s="1">
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+      </c>
+      <c r="B243" s="1">
+        <v>20</v>
+      </c>
+      <c r="C243" s="1">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+      </c>
+      <c r="B244" s="1">
+        <v>50</v>
+      </c>
+      <c r="C244" s="1">
+        <v>147500</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+      </c>
+      <c r="B245" s="1">
+        <v>680</v>
+      </c>
+      <c r="C245" s="1">
+        <v>2108000</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+      </c>
+      <c r="B246" s="1">
+        <v>80</v>
+      </c>
+      <c r="C246" s="1">
+        <v>248000</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Kim Tiểu Đường (U - 100) Omnican</v>
+      </c>
+      <c r="B247" s="1">
+        <v>100</v>
+      </c>
+      <c r="C247" s="1">
+        <v>295000</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Kuplevotin (Levosulpirid 25mg)</v>
+      </c>
+      <c r="B248" s="1">
+        <v>60</v>
+      </c>
+      <c r="C248" s="1">
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B249" s="1">
+        <v>20</v>
+      </c>
+      <c r="C249" s="1">
+        <v>112700</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B250" s="1">
+        <v>40</v>
+      </c>
+      <c r="C250" s="1">
+        <v>225400</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B251" s="1">
+        <v>140</v>
+      </c>
+      <c r="C251" s="1">
+        <v>788900</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B252" s="1">
+        <v>135</v>
+      </c>
+      <c r="C252" s="1">
+        <v>228150</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B253" s="1">
+        <v>120</v>
+      </c>
+      <c r="C253" s="1">
+        <v>202800</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B254" s="1">
+        <v>30</v>
+      </c>
+      <c r="C254" s="1">
+        <v>50700</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B255" s="1">
+        <v>30</v>
+      </c>
+      <c r="C255" s="1">
+        <v>34650</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B256" s="1">
+        <v>120</v>
+      </c>
+      <c r="C256" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B257" s="1">
+        <v>90</v>
+      </c>
+      <c r="C257" s="1">
+        <v>103950</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B258" s="1">
+        <v>120</v>
+      </c>
+      <c r="C258" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B259" s="1">
+        <v>660</v>
+      </c>
+      <c r="C259" s="1">
+        <v>762300</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B260" s="1">
+        <v>150</v>
+      </c>
+      <c r="C260" s="1">
+        <v>173250</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B261" s="1">
+        <v>840</v>
+      </c>
+      <c r="C261" s="1">
+        <v>6283200</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B262" s="1">
+        <v>1040</v>
+      </c>
+      <c r="C262" s="1">
+        <v>7779200</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B263" s="1">
+        <v>1560</v>
+      </c>
+      <c r="C263" s="1">
+        <v>11668800</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B264" s="1">
+        <v>420</v>
+      </c>
+      <c r="C264" s="1">
+        <v>3141600</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B265" s="1">
+        <v>450</v>
+      </c>
+      <c r="C265" s="1">
+        <v>3366000</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B266" s="1">
+        <v>720</v>
+      </c>
+      <c r="C266" s="1">
+        <v>5385600</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B267" s="1">
+        <v>840</v>
+      </c>
+      <c r="C267" s="1">
+        <v>6283200</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B268" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C268" s="1">
+        <v>74800000</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B269" s="1">
+        <v>570</v>
+      </c>
+      <c r="C269" s="1">
+        <v>4263600</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B270" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C270" s="1">
+        <v>11220000</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B271" s="1">
+        <v>10</v>
+      </c>
+      <c r="C271" s="1">
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B272" s="1">
+        <v>20</v>
+      </c>
+      <c r="C272" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B273" s="1">
+        <v>15</v>
+      </c>
+      <c r="C273" s="1">
+        <v>280500</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B274" s="1">
+        <v>70</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1309000</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B275" s="1">
+        <v>60</v>
+      </c>
+      <c r="C275" s="1">
+        <v>349800</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B276" s="1">
+        <v>120</v>
+      </c>
+      <c r="C276" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B277" s="1">
+        <v>300</v>
+      </c>
+      <c r="C277" s="1">
+        <v>1749000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B278" s="1">
+        <v>60</v>
+      </c>
+      <c r="C278" s="1">
+        <v>349800</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B279" s="1">
+        <v>190</v>
+      </c>
+      <c r="C279" s="1">
+        <v>1026950</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B280" s="1">
+        <v>120</v>
+      </c>
+      <c r="C280" s="1">
+        <v>648600</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B281" s="1">
+        <v>120</v>
+      </c>
+      <c r="C281" s="1">
+        <v>648600</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B282" s="1">
+        <v>270</v>
+      </c>
+      <c r="C282" s="1">
+        <v>1459350</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B283" s="1">
+        <v>170</v>
+      </c>
+      <c r="C283" s="1">
+        <v>918850</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B284" s="1">
+        <v>982</v>
+      </c>
+      <c r="C284" s="1">
+        <v>5307710</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B285" s="1">
+        <v>390</v>
+      </c>
+      <c r="C285" s="1">
+        <v>2107950</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Loxcip (Fexofenadine 180mg)</v>
+      </c>
+      <c r="B286" s="1">
+        <v>230</v>
+      </c>
+      <c r="C286" s="1">
+        <v>1243150</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B287" s="1">
+        <v>35</v>
+      </c>
+      <c r="C287" s="1">
+        <v>565950</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B288" s="1">
+        <v>60</v>
+      </c>
+      <c r="C288" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B289" s="1">
+        <v>90</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1455300</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B290" s="1">
+        <v>80</v>
+      </c>
+      <c r="C290" s="1">
+        <v>1293600</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B291" s="1">
+        <v>20</v>
+      </c>
+      <c r="C291" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B292" s="1">
+        <v>20</v>
+      </c>
+      <c r="C292" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B293" s="1">
+        <v>477</v>
+      </c>
+      <c r="C293" s="1">
+        <v>7713090</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B294" s="1">
+        <v>30</v>
+      </c>
+      <c r="C294" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B295" s="1">
+        <v>45</v>
+      </c>
+      <c r="C295" s="1">
+        <v>727650</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B296" s="1">
+        <v>80</v>
+      </c>
+      <c r="C296" s="1">
+        <v>1293600</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B297" s="1">
+        <v>390</v>
+      </c>
+      <c r="C297" s="1">
+        <v>6006000</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B298" s="1">
+        <v>340</v>
+      </c>
+      <c r="C298" s="1">
+        <v>5236000</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B299" s="1">
+        <v>330</v>
+      </c>
+      <c r="C299" s="1">
+        <v>5082000</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B300" s="1">
+        <v>620</v>
+      </c>
+      <c r="C300" s="1">
+        <v>9548000</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B301" s="1">
+        <v>810</v>
+      </c>
+      <c r="C301" s="1">
+        <v>12474000</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B302" s="1">
+        <v>630</v>
+      </c>
+      <c r="C302" s="1">
+        <v>9702000</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B303" s="1">
+        <v>7029</v>
+      </c>
+      <c r="C303" s="1">
+        <v>108246600</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B304" s="1">
+        <v>900</v>
+      </c>
+      <c r="C304" s="1">
+        <v>13860000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B305" s="1">
+        <v>870</v>
+      </c>
+      <c r="C305" s="1">
+        <v>13398000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B306" s="1">
+        <v>1149</v>
+      </c>
+      <c r="C306" s="1">
+        <v>17694600</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B307" s="1">
+        <v>60</v>
+      </c>
+      <c r="C307" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B308" s="1">
+        <v>10</v>
+      </c>
+      <c r="C308" s="1">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Medrol 4mg (Methylprednisolone)</v>
+      </c>
+      <c r="B309" s="1">
+        <v>30</v>
+      </c>
+      <c r="C309" s="1">
+        <v>38100</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B310" s="1">
+        <v>10</v>
+      </c>
+      <c r="C310" s="1">
+        <v>36700</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B311" s="1">
+        <v>38</v>
+      </c>
+      <c r="C311" s="1">
+        <v>139460</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Metilone-16 (Methylprednisolone 16mg)</v>
+      </c>
+      <c r="B312" s="1">
+        <v>7</v>
+      </c>
+      <c r="C312" s="1">
+        <v>25690</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B313" s="1">
+        <v>100</v>
+      </c>
+      <c r="C313" s="1">
+        <v>126500</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B314" s="1">
+        <v>110</v>
+      </c>
+      <c r="C314" s="1">
+        <v>139150</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B315" s="1">
+        <v>60</v>
+      </c>
+      <c r="C315" s="1">
+        <v>75900</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B316" s="1">
+        <v>242</v>
+      </c>
+      <c r="C316" s="1">
+        <v>306130</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B317" s="1">
+        <v>942</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1191630</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B318" s="1">
+        <v>210</v>
+      </c>
+      <c r="C318" s="1">
+        <v>265650</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B319" s="1">
+        <v>35</v>
+      </c>
+      <c r="C319" s="1">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B320" s="1">
+        <v>120</v>
+      </c>
+      <c r="C320" s="1">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B321" s="1">
+        <v>180</v>
+      </c>
+      <c r="C321" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B322" s="1">
+        <v>680</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1251200</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Metozamin (Metformin 850mg)</v>
+      </c>
+      <c r="B323" s="1">
+        <v>450</v>
+      </c>
+      <c r="C323" s="1">
+        <v>828000</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B324" s="1">
+        <v>205</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1150050</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B325" s="1">
+        <v>130</v>
+      </c>
+      <c r="C325" s="1">
+        <v>729300</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B326" s="1">
+        <v>60</v>
+      </c>
+      <c r="C326" s="1">
+        <v>336600</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B327" s="1">
+        <v>90</v>
+      </c>
+      <c r="C327" s="1">
+        <v>504900</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B328" s="1">
+        <v>140</v>
+      </c>
+      <c r="C328" s="1">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B329" s="1">
+        <v>1195</v>
+      </c>
+      <c r="C329" s="1">
+        <v>6703950</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B330" s="1">
+        <v>90</v>
+      </c>
+      <c r="C330" s="1">
+        <v>504900</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Mexams (Montelukast 5mg)</v>
+      </c>
+      <c r="B331" s="1">
+        <v>30</v>
+      </c>
+      <c r="C331" s="1">
+        <v>168300</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B332" s="1">
+        <v>240</v>
+      </c>
+      <c r="C332" s="1">
+        <v>3036000</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B333" s="1">
+        <v>120</v>
+      </c>
+      <c r="C333" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B334" s="1">
+        <v>90</v>
+      </c>
+      <c r="C334" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B335" s="1">
+        <v>180</v>
+      </c>
+      <c r="C335" s="1">
+        <v>2277000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B336" s="1">
+        <v>870</v>
+      </c>
+      <c r="C336" s="1">
+        <v>11005500</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B337" s="1">
+        <v>150</v>
+      </c>
+      <c r="C337" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B338" s="1">
+        <v>60</v>
+      </c>
+      <c r="C338" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B339" s="1">
+        <v>30</v>
+      </c>
+      <c r="C339" s="1">
+        <v>63600</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B340" s="1">
+        <v>30</v>
+      </c>
+      <c r="C340" s="1">
+        <v>63600</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B341" s="1">
+        <v>240</v>
+      </c>
+      <c r="C341" s="1">
+        <v>508800</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B342" s="1">
+        <v>60</v>
+      </c>
+      <c r="C342" s="1">
+        <v>127200</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Nadebo (Rebamipide 100mg)</v>
+      </c>
+      <c r="B343" s="1">
+        <v>60</v>
+      </c>
+      <c r="C343" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>Nadebo (Rebamipide 100mg)</v>
+      </c>
+      <c r="B344" s="1">
+        <v>120</v>
+      </c>
+      <c r="C344" s="1">
+        <v>607200</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>Nadebo (Rebamipide 100mg)</v>
+      </c>
+      <c r="B345" s="1">
+        <v>720</v>
+      </c>
+      <c r="C345" s="1">
+        <v>3643200</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Nadebo (Rebamipide 100mg)</v>
+      </c>
+      <c r="B346" s="1">
+        <v>60</v>
+      </c>
+      <c r="C346" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Nadebo (Rebamipide 100mg)</v>
+      </c>
+      <c r="B347" s="1">
+        <v>30</v>
+      </c>
+      <c r="C347" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Nadebo (Rebamipide 100mg)</v>
+      </c>
+      <c r="B348" s="1">
+        <v>120</v>
+      </c>
+      <c r="C348" s="1">
+        <v>607200</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B349" s="1">
+        <v>90</v>
+      </c>
+      <c r="C349" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B350" s="1">
+        <v>150</v>
+      </c>
+      <c r="C350" s="1">
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B351" s="1">
+        <v>180</v>
+      </c>
+      <c r="C351" s="1">
+        <v>828000</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B352" s="1">
+        <v>660</v>
+      </c>
+      <c r="C352" s="1">
+        <v>3036000</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B353" s="1">
+        <v>120</v>
+      </c>
+      <c r="C353" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B354" s="1">
+        <v>970</v>
+      </c>
+      <c r="C354" s="1">
+        <v>4462000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B355" s="1">
+        <v>5595</v>
+      </c>
+      <c r="C355" s="1">
+        <v>25737000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B356" s="1">
+        <v>660</v>
+      </c>
+      <c r="C356" s="1">
+        <v>3036000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B357" s="1">
+        <v>840</v>
+      </c>
+      <c r="C357" s="1">
+        <v>3864000</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B358" s="1">
+        <v>45</v>
+      </c>
+      <c r="C358" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B359" s="1">
+        <v>90</v>
+      </c>
+      <c r="C359" s="1">
+        <v>222300</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B360" s="1">
+        <v>50</v>
+      </c>
+      <c r="C360" s="1">
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B361" s="1">
+        <v>350</v>
+      </c>
+      <c r="C361" s="1">
+        <v>864500</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B362" s="1">
+        <v>50</v>
+      </c>
+      <c r="C362" s="1">
+        <v>123500</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B363" s="1">
+        <v>750</v>
+      </c>
+      <c r="C363" s="1">
+        <v>8167500</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B364" s="1">
+        <v>605</v>
+      </c>
+      <c r="C364" s="1">
+        <v>6588450</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B365" s="1">
+        <v>390</v>
+      </c>
+      <c r="C365" s="1">
+        <v>4247100</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B366" s="1">
+        <v>60</v>
+      </c>
+      <c r="C366" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B367" s="1">
+        <v>345</v>
+      </c>
+      <c r="C367" s="1">
+        <v>3757050</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B368" s="1">
+        <v>182</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1981980</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B369" s="1">
+        <v>3110</v>
+      </c>
+      <c r="C369" s="1">
+        <v>33867900</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B370" s="1">
+        <v>180</v>
+      </c>
+      <c r="C370" s="1">
+        <v>1960200</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B371" s="1">
+        <v>405</v>
+      </c>
+      <c r="C371" s="1">
+        <v>4410450</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B372" s="1">
+        <v>330</v>
+      </c>
+      <c r="C372" s="1">
+        <v>3593700</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B373" s="1">
+        <v>330</v>
+      </c>
+      <c r="C373" s="1">
+        <v>2722500</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B374" s="1">
+        <v>450</v>
+      </c>
+      <c r="C374" s="1">
+        <v>3712500</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B375" s="1">
+        <v>180</v>
+      </c>
+      <c r="C375" s="1">
+        <v>1485000</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B376" s="1">
+        <v>105</v>
+      </c>
+      <c r="C376" s="1">
+        <v>866250</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B377" s="1">
+        <v>60</v>
+      </c>
+      <c r="C377" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B378" s="1">
+        <v>345</v>
+      </c>
+      <c r="C378" s="1">
+        <v>2846250</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2480</v>
+      </c>
+      <c r="C379" s="1">
+        <v>20460000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B380" s="1">
+        <v>420</v>
+      </c>
+      <c r="C380" s="1">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B381" s="1">
+        <v>990</v>
+      </c>
+      <c r="C381" s="1">
+        <v>8167500</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B382" s="1">
+        <v>300</v>
+      </c>
+      <c r="C382" s="1">
+        <v>2475000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B383" s="1">
+        <v>480</v>
+      </c>
+      <c r="C383" s="1">
+        <v>1600800</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B384" s="1">
+        <v>260</v>
+      </c>
+      <c r="C384" s="1">
+        <v>867100</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B385" s="1">
+        <v>450</v>
+      </c>
+      <c r="C385" s="1">
+        <v>1500750</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B386" s="1">
+        <v>120</v>
+      </c>
+      <c r="C386" s="1">
+        <v>400200</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B387" s="1">
+        <v>120</v>
+      </c>
+      <c r="C387" s="1">
+        <v>400200</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B388" s="1">
+        <v>144</v>
+      </c>
+      <c r="C388" s="1">
+        <v>480240</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B389" s="1">
+        <v>1380</v>
+      </c>
+      <c r="C389" s="1">
+        <v>4602300</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B390" s="1">
+        <v>240</v>
+      </c>
+      <c r="C390" s="1">
+        <v>800400</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B391" s="1">
+        <v>530</v>
+      </c>
+      <c r="C391" s="1">
+        <v>1767550</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B392" s="1">
+        <v>60</v>
+      </c>
+      <c r="C392" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B393" s="1">
+        <v>150</v>
+      </c>
+      <c r="C393" s="1">
+        <v>2722500</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B394" s="1">
+        <v>150</v>
+      </c>
+      <c r="C394" s="1">
+        <v>2722500</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B395" s="1">
+        <v>190</v>
+      </c>
+      <c r="C395" s="1">
+        <v>3448500</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B396" s="1">
+        <v>740</v>
+      </c>
+      <c r="C396" s="1">
+        <v>6489800</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B397" s="1">
+        <v>1495</v>
+      </c>
+      <c r="C397" s="1">
+        <v>13111150</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B398" s="1">
+        <v>1185</v>
+      </c>
+      <c r="C398" s="1">
+        <v>10392450</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B399" s="1">
+        <v>750</v>
+      </c>
+      <c r="C399" s="1">
+        <v>6577500</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B400" s="1">
+        <v>300</v>
+      </c>
+      <c r="C400" s="1">
+        <v>2631000</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B401" s="1">
+        <v>668</v>
+      </c>
+      <c r="C401" s="1">
+        <v>5858360</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B402" s="1">
+        <v>6546</v>
+      </c>
+      <c r="C402" s="1">
+        <v>57408420</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B403" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C403" s="1">
+        <v>8945400</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B404" s="1">
+        <v>164</v>
+      </c>
+      <c r="C404" s="1">
+        <v>1438280</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B405" s="1">
+        <v>300</v>
+      </c>
+      <c r="C405" s="1">
+        <v>2631000</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B406" s="1">
+        <v>60</v>
+      </c>
+      <c r="C406" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B407" s="1">
+        <v>60</v>
+      </c>
+      <c r="C407" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B408" s="1">
+        <v>240</v>
+      </c>
+      <c r="C408" s="1">
+        <v>1557600</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B409" s="1">
+        <v>60</v>
+      </c>
+      <c r="C409" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B410" s="1">
+        <v>1380</v>
+      </c>
+      <c r="C410" s="1">
+        <v>8956200</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B411" s="1">
+        <v>60</v>
+      </c>
+      <c r="C411" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>Ranilex (Mg(oxyd, aluminosilicat, alumin), ranitidin)</v>
+      </c>
+      <c r="B412" s="1">
+        <v>150</v>
+      </c>
+      <c r="C412" s="1">
+        <v>973500</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B413" s="1">
+        <v>500</v>
+      </c>
+      <c r="C413" s="1">
+        <v>3850000</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B414" s="1">
+        <v>330</v>
+      </c>
+      <c r="C414" s="1">
+        <v>2541000</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B415" s="1">
+        <v>180</v>
+      </c>
+      <c r="C415" s="1">
+        <v>1386000</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B416" s="1">
+        <v>120</v>
+      </c>
+      <c r="C416" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B417" s="1">
+        <v>240</v>
+      </c>
+      <c r="C417" s="1">
+        <v>1848000</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B418" s="1">
+        <v>2450</v>
+      </c>
+      <c r="C418" s="1">
+        <v>18865000</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B419" s="1">
+        <v>180</v>
+      </c>
+      <c r="C419" s="1">
+        <v>1386000</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B420" s="1">
+        <v>120</v>
+      </c>
+      <c r="C420" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B421" s="1">
+        <v>590</v>
+      </c>
+      <c r="C421" s="1">
+        <v>5451600</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B422" s="1">
+        <v>695</v>
+      </c>
+      <c r="C422" s="1">
+        <v>6421800</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B423" s="1">
+        <v>420</v>
+      </c>
+      <c r="C423" s="1">
+        <v>3880800</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B424" s="1">
+        <v>300</v>
+      </c>
+      <c r="C424" s="1">
+        <v>2772000</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B425" s="1">
+        <v>350</v>
+      </c>
+      <c r="C425" s="1">
+        <v>3234000</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B426" s="1">
+        <v>7792</v>
+      </c>
+      <c r="C426" s="1">
+        <v>71998080</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B427" s="1">
+        <v>930</v>
+      </c>
+      <c r="C427" s="1">
+        <v>8593200</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B428" s="1">
+        <v>300</v>
+      </c>
+      <c r="C428" s="1">
+        <v>2772000</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B429" s="1">
+        <v>270</v>
+      </c>
+      <c r="C429" s="1">
+        <v>2494800</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B430" s="1">
+        <v>720</v>
+      </c>
+      <c r="C430" s="1">
+        <v>6652800</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B431" s="1">
+        <v>60</v>
+      </c>
+      <c r="C431" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B432" s="1">
+        <v>15</v>
+      </c>
+      <c r="C432" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B433" s="1">
+        <v>30</v>
+      </c>
+      <c r="C433" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B434" s="1">
+        <v>30</v>
+      </c>
+      <c r="C434" s="1">
+        <v>118950</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>Sanaperol (Rabeprazol 20mg)</v>
+      </c>
+      <c r="B435" s="1">
+        <v>180</v>
+      </c>
+      <c r="C435" s="1">
+        <v>1564200</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>Sanlein (Natri hyaluronate 0.1%)</v>
+      </c>
+      <c r="B436" s="1">
+        <v>1</v>
+      </c>
+      <c r="C436" s="1">
+        <v>68300</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>Seretide 25/125 (Salmeterol, fluticasone propionate)</v>
+      </c>
+      <c r="B437" s="1">
+        <v>2</v>
+      </c>
+      <c r="C437" s="1">
+        <v>483600</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B438" s="1">
+        <v>210</v>
+      </c>
+      <c r="C438" s="1">
+        <v>1086750</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B439" s="1">
+        <v>30</v>
+      </c>
+      <c r="C439" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B440" s="1">
+        <v>465</v>
+      </c>
+      <c r="C440" s="1">
+        <v>2406375</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B441" s="1">
+        <v>90</v>
+      </c>
+      <c r="C441" s="1">
+        <v>465750</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B442" s="1">
+        <v>120</v>
+      </c>
+      <c r="C442" s="1">
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B443" s="1">
+        <v>30</v>
+      </c>
+      <c r="C443" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B444" s="1">
+        <v>1</v>
+      </c>
+      <c r="C444" s="1">
+        <v>179700</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B445" s="1">
+        <v>11</v>
+      </c>
+      <c r="C445" s="1">
+        <v>1976700</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B446" s="1">
+        <v>3</v>
+      </c>
+      <c r="C446" s="1">
+        <v>539100</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B447" s="1">
+        <v>35</v>
+      </c>
+      <c r="C447" s="1">
+        <v>6289500</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>Sotinin</v>
+      </c>
+      <c r="B448" s="1">
+        <v>19</v>
+      </c>
+      <c r="C448" s="1">
+        <v>3414300</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B449" s="1">
+        <v>60</v>
+      </c>
+      <c r="C449" s="1">
+        <v>200100</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B450" s="1">
+        <v>4</v>
+      </c>
+      <c r="C450" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B451" s="1">
+        <v>6</v>
+      </c>
+      <c r="C451" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B452" s="1">
+        <v>6</v>
+      </c>
+      <c r="C452" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B453" s="1">
+        <v>28</v>
+      </c>
+      <c r="C453" s="1">
+        <v>3080000</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B454" s="1">
+        <v>8</v>
+      </c>
+      <c r="C454" s="1">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>SunnyRoitin (Citicoline 500mg)</v>
+      </c>
+      <c r="B455" s="1">
+        <v>60</v>
+      </c>
+      <c r="C455" s="1">
+        <v>1188000</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>SunnyRoitin (Citicoline 500mg)</v>
+      </c>
+      <c r="B456" s="1">
+        <v>30</v>
+      </c>
+      <c r="C456" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>SunnyRoitin (Citicoline 500mg)</v>
+      </c>
+      <c r="B457" s="1">
+        <v>210</v>
+      </c>
+      <c r="C457" s="1">
+        <v>4158000</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B458" s="1">
+        <v>60</v>
+      </c>
+      <c r="C458" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B459" s="1">
+        <v>60</v>
+      </c>
+      <c r="C459" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>Talroma (Tiropramide 100mg)</v>
+      </c>
+      <c r="B460" s="1">
+        <v>210</v>
+      </c>
+      <c r="C460" s="1">
+        <v>1086750</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B461" s="1">
+        <v>60</v>
+      </c>
+      <c r="C461" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B462" s="1">
+        <v>60</v>
+      </c>
+      <c r="C462" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B463" s="1">
+        <v>480</v>
+      </c>
+      <c r="C463" s="1">
+        <v>1987200</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B464" s="1">
+        <v>120</v>
+      </c>
+      <c r="C464" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B465" s="1">
+        <v>260</v>
+      </c>
+      <c r="C465" s="1">
+        <v>1046500</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B466" s="1">
+        <v>120</v>
+      </c>
+      <c r="C466" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B467" s="1">
+        <v>60</v>
+      </c>
+      <c r="C467" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B468" s="1">
+        <v>120</v>
+      </c>
+      <c r="C468" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B469" s="1">
+        <v>240</v>
+      </c>
+      <c r="C469" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B470" s="1">
+        <v>1260</v>
+      </c>
+      <c r="C470" s="1">
+        <v>5071500</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B471" s="1">
+        <v>240</v>
+      </c>
+      <c r="C471" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B472" s="1">
+        <v>120</v>
+      </c>
+      <c r="C472" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B473" s="1">
+        <v>660</v>
+      </c>
+      <c r="C473" s="1">
+        <v>834900</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B474" s="1">
+        <v>720</v>
+      </c>
+      <c r="C474" s="1">
+        <v>910800</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B475" s="1">
+        <v>240</v>
+      </c>
+      <c r="C475" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B476" s="1">
+        <v>600</v>
+      </c>
+      <c r="C476" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B477" s="1">
+        <v>30</v>
+      </c>
+      <c r="C477" s="1">
+        <v>37950</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B478" s="1">
+        <v>270</v>
+      </c>
+      <c r="C478" s="1">
+        <v>341550</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B479" s="1">
+        <v>740</v>
+      </c>
+      <c r="C479" s="1">
+        <v>936100</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B480" s="1">
+        <v>5190</v>
+      </c>
+      <c r="C480" s="1">
+        <v>6565350</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B481" s="1">
+        <v>90</v>
+      </c>
+      <c r="C481" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>Tazilex (Methimazol 5mg)</v>
+      </c>
+      <c r="B482" s="1">
+        <v>90</v>
+      </c>
+      <c r="C482" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B483" s="1">
+        <v>480</v>
+      </c>
+      <c r="C483" s="1">
+        <v>3643200</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B484" s="1">
+        <v>270</v>
+      </c>
+      <c r="C484" s="1">
+        <v>2049300</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B485" s="1">
+        <v>180</v>
+      </c>
+      <c r="C485" s="1">
+        <v>1366200</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B486" s="1">
+        <v>45</v>
+      </c>
+      <c r="C486" s="1">
+        <v>341550</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B487" s="1">
+        <v>270</v>
+      </c>
+      <c r="C487" s="1">
+        <v>2049300</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B488" s="1">
+        <v>120</v>
+      </c>
+      <c r="C488" s="1">
+        <v>910800</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B489" s="1">
+        <v>355</v>
+      </c>
+      <c r="C489" s="1">
+        <v>2694450</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B490" s="1">
+        <v>5550</v>
+      </c>
+      <c r="C490" s="1">
+        <v>42124500</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B491" s="1">
+        <v>360</v>
+      </c>
+      <c r="C491" s="1">
+        <v>2732400</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B492" s="1">
+        <v>270</v>
+      </c>
+      <c r="C492" s="1">
+        <v>2049300</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>Thyrozol 10mg (Thiamazole)</v>
+      </c>
+      <c r="B493" s="1">
+        <v>120</v>
+      </c>
+      <c r="C493" s="1">
+        <v>308400</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B494" s="1">
+        <v>120</v>
+      </c>
+      <c r="C494" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B495" s="1">
+        <v>240</v>
+      </c>
+      <c r="C495" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B496" s="1">
+        <v>330</v>
+      </c>
+      <c r="C496" s="1">
+        <v>1366200</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B497" s="1">
+        <v>180</v>
+      </c>
+      <c r="C497" s="1">
+        <v>745200</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B498" s="1">
+        <v>60</v>
+      </c>
+      <c r="C498" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B499" s="1">
+        <v>510</v>
+      </c>
+      <c r="C499" s="1">
+        <v>2111400</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B500" s="1">
+        <v>60</v>
+      </c>
+      <c r="C500" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B501" s="1">
+        <v>180</v>
+      </c>
+      <c r="C501" s="1">
+        <v>745200</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B502" s="1">
+        <v>270</v>
+      </c>
+      <c r="C502" s="1">
+        <v>2316600</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B503" s="1">
+        <v>150</v>
+      </c>
+      <c r="C503" s="1">
+        <v>1287000</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B504" s="1">
+        <v>360</v>
+      </c>
+      <c r="C504" s="1">
+        <v>3088800</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B505" s="1">
+        <v>60</v>
+      </c>
+      <c r="C505" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B506" s="1">
+        <v>705</v>
+      </c>
+      <c r="C506" s="1">
+        <v>6048900</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B507" s="1">
+        <v>30</v>
+      </c>
+      <c r="C507" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B508" s="1">
+        <v>260</v>
+      </c>
+      <c r="C508" s="1">
+        <v>508300</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B509" s="1">
+        <v>420</v>
+      </c>
+      <c r="C509" s="1">
+        <v>821100</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B510" s="1">
+        <v>480</v>
+      </c>
+      <c r="C510" s="1">
+        <v>938400</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B511" s="1">
+        <v>360</v>
+      </c>
+      <c r="C511" s="1">
+        <v>703800</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B512" s="1">
+        <v>540</v>
+      </c>
+      <c r="C512" s="1">
+        <v>1055700</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B513" s="1">
+        <v>780</v>
+      </c>
+      <c r="C513" s="1">
+        <v>1524900</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B514" s="1">
+        <v>5230</v>
+      </c>
+      <c r="C514" s="1">
+        <v>10224650</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B515" s="1">
+        <v>540</v>
+      </c>
+      <c r="C515" s="1">
+        <v>1055700</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B516" s="1">
+        <v>600</v>
+      </c>
+      <c r="C516" s="1">
+        <v>1173000</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B517" s="1">
+        <v>120</v>
+      </c>
+      <c r="C517" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B518" s="1">
+        <v>150</v>
+      </c>
+      <c r="C518" s="1">
+        <v>569250</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B519" s="1">
+        <v>180</v>
+      </c>
+      <c r="C519" s="1">
+        <v>683100</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B520" s="1">
+        <v>120</v>
+      </c>
+      <c r="C520" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B521" s="1">
+        <v>1643</v>
+      </c>
+      <c r="C521" s="1">
+        <v>6235185</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B522" s="1">
+        <v>120</v>
+      </c>
+      <c r="C522" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B523" s="1">
+        <v>60</v>
+      </c>
+      <c r="C523" s="1">
+        <v>227700</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>Uvomo (Mosaprid citrat 5mg)</v>
+      </c>
+      <c r="B524" s="1">
+        <v>240</v>
+      </c>
+      <c r="C524" s="1">
+        <v>910800</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B525" s="1">
+        <v>2490</v>
+      </c>
+      <c r="C525" s="1">
+        <v>21364200</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B526" s="1">
+        <v>3090</v>
+      </c>
+      <c r="C526" s="1">
+        <v>26512200</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B527" s="1">
+        <v>2315</v>
+      </c>
+      <c r="C527" s="1">
+        <v>19862700</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B528" s="1">
+        <v>3412</v>
+      </c>
+      <c r="C528" s="1">
+        <v>29274960</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B529" s="1">
+        <v>32114</v>
+      </c>
+      <c r="C529" s="1">
+        <v>275538120</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B530" s="1">
+        <v>5730</v>
+      </c>
+      <c r="C530" s="1">
+        <v>49163400</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B531" s="1">
+        <v>2910</v>
+      </c>
+      <c r="C531" s="1">
+        <v>24967800</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B532" s="1">
+        <v>2010</v>
+      </c>
+      <c r="C532" s="1">
+        <v>17245800</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B533" s="1">
+        <v>2130</v>
+      </c>
+      <c r="C533" s="1">
+        <v>18275400</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>Vigorito (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B534" s="1">
+        <v>3120</v>
+      </c>
+      <c r="C534" s="1">
+        <v>26769600</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B535" s="1">
+        <v>140</v>
+      </c>
+      <c r="C535" s="1">
+        <v>2618000</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B536" s="1">
+        <v>182</v>
+      </c>
+      <c r="C536" s="1">
+        <v>3403400</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B537" s="1">
+        <v>160</v>
+      </c>
+      <c r="C537" s="1">
+        <v>2992000</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B538" s="1">
+        <v>95</v>
+      </c>
+      <c r="C538" s="1">
+        <v>1776500</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B539" s="1">
+        <v>1409</v>
+      </c>
+      <c r="C539" s="1">
+        <v>26348300</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B540" s="1">
+        <v>120</v>
+      </c>
+      <c r="C540" s="1">
+        <v>2244000</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B541" s="1">
+        <v>100</v>
+      </c>
+      <c r="C541" s="1">
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B542" s="1">
+        <v>30</v>
+      </c>
+      <c r="C542" s="1">
+        <v>561000</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B543" s="1">
+        <v>45</v>
+      </c>
+      <c r="C543" s="1">
+        <v>841500</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B544" s="1">
+        <v>155</v>
+      </c>
+      <c r="C544" s="1">
+        <v>2898500</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B545" s="1">
+        <v>60</v>
+      </c>
+      <c r="C545" s="1">
+        <v>456900</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B546" s="1">
+        <v>20</v>
+      </c>
+      <c r="C546" s="1">
+        <v>152300</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B547" s="1">
+        <v>690</v>
+      </c>
+      <c r="C547" s="1">
+        <v>6679200</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B548" s="1">
+        <v>150</v>
+      </c>
+      <c r="C548" s="1">
+        <v>1452000</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B549" s="1">
+        <v>540</v>
+      </c>
+      <c r="C549" s="1">
+        <v>5227200</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B550" s="1">
+        <v>840</v>
+      </c>
+      <c r="C550" s="1">
+        <v>8131200</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B551" s="1">
+        <v>1830</v>
+      </c>
+      <c r="C551" s="1">
+        <v>17714400</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B552" s="1">
+        <v>1140</v>
+      </c>
+      <c r="C552" s="1">
+        <v>11035200</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B553" s="1">
+        <v>10056</v>
+      </c>
+      <c r="C553" s="1">
+        <v>97342080</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B554" s="1">
+        <v>660</v>
+      </c>
+      <c r="C554" s="1">
+        <v>6388800</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B555" s="1">
+        <v>360</v>
+      </c>
+      <c r="C555" s="1">
+        <v>3484800</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v xml:space="preserve">Zytovyrin S (Simvastatin,ezetimib) </v>
+      </c>
+      <c r="B556" s="1">
+        <v>120</v>
+      </c>
+      <c r="C556" s="1">
+        <v>1161600</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B115" s="1">
-        <v>416432</v>
-      </c>
-      <c r="C115" s="1">
-        <v>NaN</v>
+      <c r="B557" s="1">
+        <v>346488</v>
+      </c>
+      <c r="C557" s="1">
+        <v>2539112485</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C115"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C557"/>
   </ignoredErrors>
 </worksheet>
 </file>